--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H2">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.938071848835358</v>
+        <v>0.09433999999999999</v>
       </c>
       <c r="N2">
-        <v>0.938071848835358</v>
+        <v>0.28302</v>
       </c>
       <c r="O2">
-        <v>0.554835360814279</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="P2">
-        <v>0.554835360814279</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="Q2">
-        <v>0.3231697787804518</v>
+        <v>0.06484717762666667</v>
       </c>
       <c r="R2">
-        <v>0.3231697787804518</v>
+        <v>0.58362459864</v>
       </c>
       <c r="S2">
-        <v>0.007707127633116925</v>
+        <v>0.001381316805053621</v>
       </c>
       <c r="T2">
-        <v>0.007707127633116925</v>
+        <v>0.001381316805053621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H3">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.752649246263266</v>
+        <v>0.9431116666666667</v>
       </c>
       <c r="N3">
-        <v>0.752649246263266</v>
+        <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.445164639185721</v>
+        <v>0.5189484550226392</v>
       </c>
       <c r="P3">
-        <v>0.445164639185721</v>
+        <v>0.5189484550226391</v>
       </c>
       <c r="Q3">
-        <v>0.2592908962316208</v>
+        <v>0.648273582468889</v>
       </c>
       <c r="R3">
-        <v>0.2592908962316208</v>
+        <v>5.83446224222</v>
       </c>
       <c r="S3">
-        <v>0.006183709500633721</v>
+        <v>0.01380894630282803</v>
       </c>
       <c r="T3">
-        <v>0.006183709500633721</v>
+        <v>0.01380894630282802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.47763752060708</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H4">
-        <v>5.47763752060708</v>
+        <v>2.062132</v>
       </c>
       <c r="I4">
-        <v>0.2208650872857467</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J4">
-        <v>0.2208650872857467</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.938071848835358</v>
+        <v>0.7798996666666667</v>
       </c>
       <c r="N4">
-        <v>0.938071848835358</v>
+        <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.554835360814279</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="P4">
-        <v>0.554835360814279</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="Q4">
-        <v>5.13841755620581</v>
+        <v>0.5360853531408889</v>
       </c>
       <c r="R4">
-        <v>5.13841755620581</v>
+        <v>4.824768178268</v>
       </c>
       <c r="S4">
-        <v>0.1225437603954645</v>
+        <v>0.01141921259086691</v>
       </c>
       <c r="T4">
-        <v>0.1225437603954645</v>
+        <v>0.01141921259086691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H5">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.752649246263266</v>
+        <v>0.09433999999999999</v>
       </c>
       <c r="N5">
-        <v>0.752649246263266</v>
+        <v>0.28302</v>
       </c>
       <c r="O5">
-        <v>0.445164639185721</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="P5">
-        <v>0.445164639185721</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="Q5">
-        <v>4.122739751188304</v>
+        <v>0.5579253134533333</v>
       </c>
       <c r="R5">
-        <v>4.122739751188304</v>
+        <v>5.02132782108</v>
       </c>
       <c r="S5">
-        <v>0.09832132689028218</v>
+        <v>0.01188442796808755</v>
       </c>
       <c r="T5">
-        <v>0.09832132689028218</v>
+        <v>0.01188442796808755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.978688358287</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H6">
-        <v>18.978688358287</v>
+        <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J6">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.938071848835358</v>
+        <v>0.9431116666666667</v>
       </c>
       <c r="N6">
-        <v>0.938071848835358</v>
+        <v>2.829335</v>
       </c>
       <c r="O6">
-        <v>0.554835360814279</v>
+        <v>0.5189484550226392</v>
       </c>
       <c r="P6">
-        <v>0.554835360814279</v>
+        <v>0.5189484550226391</v>
       </c>
       <c r="Q6">
-        <v>17.80337327672837</v>
+        <v>5.577547935621111</v>
       </c>
       <c r="R6">
-        <v>17.80337327672837</v>
+        <v>50.19793142059</v>
       </c>
       <c r="S6">
-        <v>0.4245844727856976</v>
+        <v>0.1188079570528196</v>
       </c>
       <c r="T6">
-        <v>0.4245844727856976</v>
+        <v>0.1188079570528195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.978688358287</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H7">
-        <v>18.978688358287</v>
+        <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J7">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752649246263266</v>
+        <v>0.7798996666666667</v>
       </c>
       <c r="N7">
-        <v>0.752649246263266</v>
+        <v>2.339699</v>
       </c>
       <c r="O7">
-        <v>0.445164639185721</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="P7">
-        <v>0.445164639185721</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="Q7">
-        <v>14.28429548793013</v>
+        <v>4.612314670205111</v>
       </c>
       <c r="R7">
-        <v>14.28429548793013</v>
+        <v>41.510832031846</v>
       </c>
       <c r="S7">
-        <v>0.3406596027948051</v>
+        <v>0.09824741796518435</v>
       </c>
       <c r="T7">
-        <v>0.3406596027948051</v>
+        <v>0.09824741796518435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>19.230689</v>
+      </c>
+      <c r="H8">
+        <v>57.692067</v>
+      </c>
+      <c r="I8">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="J8">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.09433999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.28302</v>
+      </c>
+      <c r="O8">
+        <v>0.05191071108246543</v>
+      </c>
+      <c r="P8">
+        <v>0.05191071108246543</v>
+      </c>
+      <c r="Q8">
+        <v>1.81422320026</v>
+      </c>
+      <c r="R8">
+        <v>16.32800880234</v>
+      </c>
+      <c r="S8">
+        <v>0.03864496630932426</v>
+      </c>
+      <c r="T8">
+        <v>0.03864496630932426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>19.230689</v>
+      </c>
+      <c r="H9">
+        <v>57.692067</v>
+      </c>
+      <c r="I9">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="J9">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9431116666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.829335</v>
+      </c>
+      <c r="O9">
+        <v>0.5189484550226392</v>
+      </c>
+      <c r="P9">
+        <v>0.5189484550226391</v>
+      </c>
+      <c r="Q9">
+        <v>18.13668715393834</v>
+      </c>
+      <c r="R9">
+        <v>163.230184385445</v>
+      </c>
+      <c r="S9">
+        <v>0.3863315516669917</v>
+      </c>
+      <c r="T9">
+        <v>0.3863315516669916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>19.230689</v>
+      </c>
+      <c r="H10">
+        <v>57.692067</v>
+      </c>
+      <c r="I10">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="J10">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7798996666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.339699</v>
+      </c>
+      <c r="O10">
+        <v>0.4291408338948954</v>
+      </c>
+      <c r="P10">
+        <v>0.4291408338948954</v>
+      </c>
+      <c r="Q10">
+        <v>14.99800794087033</v>
+      </c>
+      <c r="R10">
+        <v>134.982071467833</v>
+      </c>
+      <c r="S10">
+        <v>0.3194742033388442</v>
+      </c>
+      <c r="T10">
+        <v>0.3194742033388442</v>
       </c>
     </row>
   </sheetData>
